--- a/GL stuck in stg table.xlsx
+++ b/GL stuck in stg table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z8604tip\Documents\Gerald\Problem with analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z8604tip\Documents\Gerald\Problem with analysis\GL stuck in STAGING table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAF7ABA-CF8C-4A70-B6E5-A9187684F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF5220-BC3A-42B9-A751-46ED5C4D1150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86659EF5-2A81-459B-AC40-BC95908E1E66}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86659EF5-2A81-459B-AC40-BC95908E1E66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6151" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6154" uniqueCount="562">
   <si>
     <t xml:space="preserve">Current shit </t>
   </si>
@@ -1703,9 +1703,6 @@
     <t xml:space="preserve">solved by magic de joke lang </t>
   </si>
   <si>
-    <t xml:space="preserve">extracted lang sa stg table during feb 8(thur) then </t>
-  </si>
-  <si>
     <t>TOSHIBA ELECTRONICS ASIA (SINGAPORE) PTE. LTD. T090845800G</t>
   </si>
   <si>
@@ -1716,6 +1713,15 @@
   </si>
   <si>
     <t xml:space="preserve"> PAN PACIFIC INDUSTRIAL SALES CO., INC. T0B454C0000</t>
+  </si>
+  <si>
+    <t>extracted lang sa stg table during feb 8(thur) then nag interface nung feb 13</t>
+  </si>
+  <si>
+    <t>same case</t>
+  </si>
+  <si>
+    <t>The only error we got on log files is  "ORA-01722: invalid number" means error is caused by trying to convert a string into a number</t>
   </si>
 </sst>
 </file>
@@ -2625,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5226DD-4263-45AE-A4F3-6F3FBA0B31B5}">
-  <dimension ref="A1:GF455"/>
+  <dimension ref="A1:GF457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F370" sqref="F370"/>
+    <sheetView tabSelected="1" topLeftCell="EH388" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="EU404" sqref="EU404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2700,10 @@
     <col min="123" max="123" width="20.28515625" style="6" customWidth="1"/>
     <col min="124" max="127" width="9.140625" style="6"/>
     <col min="128" max="128" width="19.28515625" style="6" customWidth="1"/>
-    <col min="129" max="156" width="9.140625" style="6"/>
+    <col min="129" max="153" width="9.140625" style="6"/>
+    <col min="154" max="154" width="14" style="6" customWidth="1"/>
+    <col min="155" max="155" width="13.85546875" style="6" customWidth="1"/>
+    <col min="156" max="156" width="9.140625" style="6"/>
     <col min="157" max="157" width="16.7109375" style="6" customWidth="1"/>
     <col min="158" max="158" width="14.140625" style="6" customWidth="1"/>
     <col min="159" max="159" width="19.85546875" style="6" customWidth="1"/>
@@ -71583,7 +71592,7 @@
       <c r="A393" s="32"/>
       <c r="B393" s="32"/>
       <c r="C393" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D393" s="28"/>
       <c r="E393" s="26"/>
@@ -74586,7 +74595,7 @@
       <c r="A403" s="32"/>
       <c r="B403" s="32"/>
       <c r="C403" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D403" s="28"/>
       <c r="E403" s="28"/>
@@ -77737,7 +77746,7 @@
       <c r="A414" s="32"/>
       <c r="B414" s="32"/>
       <c r="C414" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D414" s="28"/>
       <c r="E414" s="26"/>
@@ -80906,7 +80915,7 @@
       <c r="A425" s="32"/>
       <c r="B425" s="32"/>
       <c r="C425" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D425" s="28"/>
       <c r="E425" s="26"/>
@@ -83281,17 +83290,17 @@
       <c r="FL432" s="26"/>
       <c r="FM432" s="26"/>
     </row>
-    <row r="435" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B435" s="31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B436" s="6" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B439" s="32"/>
       <c r="C439" s="27" t="s">
         <v>239</v>
@@ -83299,12 +83308,12 @@
       <c r="D439" s="32"/>
       <c r="E439" s="28"/>
     </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C441" s="6" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B444" s="32"/>
       <c r="C444" s="28" t="s">
         <v>160</v>
@@ -83312,10 +83321,17 @@
       <c r="D444" s="28"/>
       <c r="E444" s="32"/>
     </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B446" s="6" t="s">
-        <v>555</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="F446" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="G446" s="43"/>
+      <c r="H446" s="43"/>
+      <c r="I446" s="43"/>
+      <c r="J446" s="43"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B449" s="32"/>
@@ -83325,6 +83341,11 @@
       </c>
       <c r="E449" s="28"/>
     </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C451" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="32"/>
       <c r="B455" s="32"/>
@@ -83334,6 +83355,11 @@
       <c r="D455" s="28"/>
       <c r="E455" s="32"/>
       <c r="F455" s="35"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C457" s="6" t="s">
+        <v>560</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
